--- a/data/outputs/OR_elsevier/15.xlsx
+++ b/data/outputs/OR_elsevier/15.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS51"/>
+  <dimension ref="A1:BU51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84912084627</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1170,12 @@
           <t>2-s2.0-84982124179</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1373,6 +1395,12 @@
           <t>2-s2.0-84912122704</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1586,6 +1614,12 @@
           <t>2-s2.0-84912133961</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1805,6 +1839,12 @@
           <t>2-s2.0-84912122983</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2021,6 +2061,12 @@
         <is>
           <t>2-s2.0-84912058807</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2229,6 +2275,12 @@
           <t>2-s2.0-84912084292</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2448,6 +2500,12 @@
           <t>2-s2.0-84912112456</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2671,6 +2729,12 @@
           <t>2-s2.0-84912084181</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2890,6 +2954,12 @@
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3104,6 +3174,12 @@
         <is>
           <t>2-s2.0-84959180977</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3312,6 +3388,12 @@
           <t>2-s2.0-84982095752</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3529,6 +3611,12 @@
           <t>2-s2.0-84982099196</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3740,6 +3828,12 @@
           <t>2-s2.0-84948685417</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3962,6 +4056,12 @@
         <is>
           <t>2-s2.0-84948691475</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -4166,6 +4266,12 @@
           <t>2-s2.0-84948705247</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4385,6 +4491,12 @@
           <t>2-s2.0-84948667630</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4596,6 +4708,12 @@
           <t>2-s2.0-84948660720</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4807,6 +4925,12 @@
           <t>2-s2.0-84948690140</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5032,6 +5156,12 @@
           <t>2-s2.0-84948694241</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5247,6 +5377,12 @@
           <t>2-s2.0-84982308376</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5465,6 +5601,12 @@
         <is>
           <t>2-s2.0-84982290284</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -5673,6 +5815,12 @@
           <t>2-s2.0-84982291996</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5892,6 +6040,12 @@
           <t>2-s2.0-84982291668</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6115,6 +6269,12 @@
           <t>2-s2.0-84948700672</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6338,6 +6498,12 @@
           <t>2-s2.0-84948656922</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6567,6 +6733,12 @@
           <t>2-s2.0-84930672696</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6785,6 +6957,12 @@
         <is>
           <t>2-s2.0-84947251139</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6993,6 +7171,12 @@
           <t>2-s2.0-84947289738</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7208,6 +7392,12 @@
           <t>2-s2.0-84947271201</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7428,6 +7618,12 @@
         <is>
           <t>2-s2.0-84947241256</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -7636,6 +7832,12 @@
           <t>2-s2.0-84947264151</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7857,6 +8059,12 @@
           <t>2-s2.0-84947220345</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8072,6 +8280,12 @@
           <t>2-s2.0-84947249480</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8294,6 +8508,12 @@
         <is>
           <t>2-s2.0-84947273995</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -8502,6 +8722,12 @@
           <t>2-s2.0-84928642672</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8721,6 +8947,12 @@
           <t>2-s2.0-84928636741</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8936,6 +9168,12 @@
           <t>2-s2.0-84928609354</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9152,6 +9390,12 @@
         <is>
           <t>2-s2.0-84928627626</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -9360,6 +9604,12 @@
           <t>2-s2.0-84928606684</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9575,6 +9825,12 @@
           <t>2-s2.0-84928619528</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9798,6 +10054,12 @@
           <t>2-s2.0-84928613632</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10013,6 +10275,12 @@
           <t>2-s2.0-84928614190</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10234,6 +10502,12 @@
           <t>2-s2.0-84928613069</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10453,6 +10727,12 @@
           <t>2-s2.0-84954523446</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10674,6 +10954,12 @@
           <t>2-s2.0-84982283798</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10885,6 +11171,12 @@
           <t>2-s2.0-84982291252</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11104,6 +11396,12 @@
           <t>2-s2.0-84928620257</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11321,6 +11619,12 @@
           <t>2-s2.0-84928634657</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11536,6 +11840,12 @@
           <t>2-s2.0-84982292360</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
